--- a/examples/biochemical_network/schema_and_data.xlsx
+++ b/examples/biochemical_network/schema_and_data.xlsx
@@ -14,9 +14,9 @@
     <sheet name="!!Reaction" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compound'!$A$2:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compound'!$A$2:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reaction'!$A$2:$F$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -38,10 +38,10 @@
     <t>'!!Reaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-07-07 21:29:38'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-07-07 21:29:38' objTablesVersion='1.0.1'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-07-07 21:29:38'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-07-07 21:29:38' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -68,7 +68,7 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-07-07 21:29:38' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-07-07 21:29:38' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -119,52 +119,46 @@
     <t>Identifiers</t>
   </si>
   <si>
-    <t>is_constant</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ManyToOne('Model', related_name='compounds')</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>is_reversible</t>
   </si>
   <si>
     <t>Boolean</t>
   </si>
   <si>
-    <t>IsConstant</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>ManyToOne('Model', related_name='compounds')</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>equation</t>
-  </si>
-  <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>gene</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>is_reversible</t>
-  </si>
-  <si>
     <t>IsReversible</t>
   </si>
   <si>
     <t>ManyToOne('Model', related_name='reactions')</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-03-10 22:56:34' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-03-10 22:56:34' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Model</t>
@@ -176,9 +170,6 @@
     <t>!Identifiers</t>
   </si>
   <si>
-    <t>!IsConstant</t>
-  </si>
-  <si>
     <t>e_coli</t>
   </si>
   <si>
@@ -221,10 +212,10 @@
     <t>kegg.compound:C00022</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-03-10 22:56:35' objTablesVersion='1.0.1'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-03-10 22:56:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-03-10 22:56:35' objTablesVersion='1.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-03-10 22:56:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Equation</t>
@@ -321,7 +312,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -719,7 +710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -841,14 +832,14 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -857,34 +848,24 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -895,7 +876,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -930,7 +911,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -942,56 +923,46 @@
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -1003,14 +974,14 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -1019,19 +990,17 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -1040,17 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -1059,17 +1030,17 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -1078,17 +1049,17 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -1097,23 +1068,42 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>37</v>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G19"/>
+  <autoFilter ref="A2:G20"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compound'!A1" tooltip="Click to view compound" display="'!!Compound'!A1"/>
     <hyperlink ref="A9" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
-    <hyperlink ref="A12" location="'!!Reaction'!A1" tooltip="Click to view reaction" display="'!!Reaction'!A1"/>
+    <hyperlink ref="A13" location="'!!Reaction'!A1" tooltip="Click to view reaction" display="'!!Reaction'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1121,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1130,125 +1120,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
+    <row r="1" spans="1:4" ht="15.01" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="15.01" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E7"/>
-  <dataValidations count="5">
+  <autoFilter ref="A2:D7"/>
+  <dataValidations count="4">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Model" error="Value must be a value from &quot;!!Model:2&quot; or blank." promptTitle="Model" prompt="Select a value from &quot;!!Model:2&quot; or blank." sqref="A3:A7">
       <formula1>'!!Model'!$B$2:$XFD$2</formula1>
     </dataValidation>
@@ -1261,9 +1232,6 @@
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D7">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsConstant" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsConstant" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="E3:E7">
-      <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,16 +1257,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1301,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1343,62 +1311,62 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
